--- a/excel/member8.xlsx
+++ b/excel/member8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\kannur\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saneesh\project\kannur-vyabari-api-server\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97F8AC7-1A6D-4A19-8502-95191C370BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEA8883-EA45-4857-8364-A7A87EF18751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5012" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5050" uniqueCount="27">
   <si>
     <t>Mobile</t>
   </si>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="P252" sqref="P252"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,7 +1025,9 @@
       <c r="C2" s="1">
         <v>303</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1066,9 @@
       <c r="C3" s="1">
         <v>303</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1103,7 +1107,9 @@
       <c r="C4" s="1">
         <v>303</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1142,7 +1148,9 @@
       <c r="C5" s="1">
         <v>303</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1181,7 +1189,9 @@
       <c r="C6" s="1">
         <v>303</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1220,7 +1230,9 @@
       <c r="C7" s="1">
         <v>303</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1259,7 +1271,9 @@
       <c r="C8" s="1">
         <v>303</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1298,7 +1312,9 @@
       <c r="C9" s="1">
         <v>303</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1337,7 +1353,9 @@
       <c r="C10" s="1">
         <v>303</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1376,7 +1394,9 @@
       <c r="C11" s="1">
         <v>303</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1415,7 +1435,9 @@
       <c r="C12" s="1">
         <v>303</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1454,7 +1476,9 @@
       <c r="C13" s="1">
         <v>303</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1493,7 +1517,9 @@
       <c r="C14" s="1">
         <v>303</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1532,7 +1558,9 @@
       <c r="C15" s="1">
         <v>303</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +1599,9 @@
       <c r="C16" s="1">
         <v>303</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1610,7 +1640,9 @@
       <c r="C17" s="1">
         <v>303</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1649,7 +1681,9 @@
       <c r="C18" s="1">
         <v>303</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1688,7 +1722,9 @@
       <c r="C19" s="1">
         <v>303</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1727,7 +1763,9 @@
       <c r="C20" s="1">
         <v>303</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1766,7 +1804,9 @@
       <c r="C21" s="1">
         <v>303</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1805,7 +1845,9 @@
       <c r="C22" s="1">
         <v>303</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1844,7 +1886,9 @@
       <c r="C23" s="1">
         <v>303</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1883,7 +1927,9 @@
       <c r="C24" s="1">
         <v>303</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1922,7 +1968,9 @@
       <c r="C25" s="1">
         <v>303</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1961,7 +2009,9 @@
       <c r="C26" s="1">
         <v>303</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2000,7 +2050,9 @@
       <c r="C27" s="1">
         <v>303</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
@@ -2039,7 +2091,9 @@
       <c r="C28" s="1">
         <v>303</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
@@ -2078,7 +2132,9 @@
       <c r="C29" s="1">
         <v>303</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
       </c>
@@ -2117,7 +2173,9 @@
       <c r="C30" s="1">
         <v>303</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
@@ -2156,7 +2214,9 @@
       <c r="C31" s="1">
         <v>303</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
@@ -2195,7 +2255,9 @@
       <c r="C32" s="1">
         <v>303</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
@@ -2234,7 +2296,9 @@
       <c r="C33" s="1">
         <v>303</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
@@ -2273,7 +2337,9 @@
       <c r="C34" s="1">
         <v>303</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>14</v>
       </c>
@@ -2312,7 +2378,9 @@
       <c r="C35" s="1">
         <v>303</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E35" s="2" t="s">
         <v>14</v>
       </c>
@@ -2351,7 +2419,9 @@
       <c r="C36" s="1">
         <v>303</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
@@ -2390,7 +2460,9 @@
       <c r="C37" s="1">
         <v>303</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E37" s="2" t="s">
         <v>14</v>
       </c>
@@ -2429,7 +2501,9 @@
       <c r="C38" s="1">
         <v>303</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E38" s="2" t="s">
         <v>14</v>
       </c>
@@ -2468,7 +2542,9 @@
       <c r="C39" s="1">
         <v>303</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
@@ -2507,7 +2583,7 @@
       <c r="C40" s="1">
         <v>126</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -2548,7 +2624,7 @@
       <c r="C41" s="1">
         <v>126</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -2589,7 +2665,7 @@
       <c r="C42" s="1">
         <v>126</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -2630,7 +2706,7 @@
       <c r="C43" s="1">
         <v>126</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -2671,7 +2747,7 @@
       <c r="C44" s="1">
         <v>126</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -2712,7 +2788,7 @@
       <c r="C45" s="1">
         <v>126</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -2753,7 +2829,7 @@
       <c r="C46" s="1">
         <v>126</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -2794,7 +2870,7 @@
       <c r="C47" s="1">
         <v>126</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -2835,7 +2911,7 @@
       <c r="C48" s="1">
         <v>126</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -2876,7 +2952,7 @@
       <c r="C49" s="1">
         <v>126</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -2917,7 +2993,7 @@
       <c r="C50" s="1">
         <v>126</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -2958,7 +3034,7 @@
       <c r="C51" s="1">
         <v>126</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -2999,7 +3075,7 @@
       <c r="C52" s="1">
         <v>126</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -3040,7 +3116,7 @@
       <c r="C53" s="1">
         <v>126</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -3081,7 +3157,7 @@
       <c r="C54" s="1">
         <v>126</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -3122,7 +3198,7 @@
       <c r="C55" s="1">
         <v>126</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="3" t="s">
@@ -3163,7 +3239,7 @@
       <c r="C56" s="1">
         <v>126</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -3204,7 +3280,7 @@
       <c r="C57" s="1">
         <v>126</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -3245,7 +3321,7 @@
       <c r="C58" s="1">
         <v>126</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -3286,7 +3362,7 @@
       <c r="C59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -3327,7 +3403,7 @@
       <c r="C60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -3368,7 +3444,7 @@
       <c r="C61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -3409,7 +3485,7 @@
       <c r="C62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -3450,7 +3526,7 @@
       <c r="C63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -3494,7 +3570,7 @@
       <c r="D64" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="4" t="s">
